--- a/biology/Botanique/Persicaria_orientalis/Persicaria_orientalis.xlsx
+++ b/biology/Botanique/Persicaria_orientalis/Persicaria_orientalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Renouée orientale
 Persicaria orientalis, la Renouée orientale, est une espèce de plantes herbacées de la famille des Polygonaceae.
@@ -512,11 +524,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Persicaria orientalis (L.) Spach[3].
-L'espèce a été initialement classée dans le genre Polygonum sous le basionyme Polygonum orientale L.[3].
-Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Renouée orientale[3],[4],[5], Bâton de Saint-Jean[3], Monte-au-ciel[3], Renouée d'Orient[3],[5],[4], Persicaire du Levant[4],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Persicaria orientalis (L.) Spach.
+L'espèce a été initialement classée dans le genre Polygonum sous le basionyme Polygonum orientale L..
+Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Renouée orientale Bâton de Saint-Jean, Monte-au-ciel, Renouée d'Orient Persicaire du Levant,.
 </t>
         </is>
       </c>
